--- a/config/production_areas.xlsx
+++ b/config/production_areas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderstorstensson/Dropbox/R/SLV-Biotoxin-App/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderstorstensson/Dropbox/R/SLV-Biotoxin-Validator-App/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6488E78-ABDD-774E-A4E5-5ACEC21EF543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5A822-6D7E-BF4B-96A4-6B6EBCE27CF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="5180" windowWidth="25240" windowHeight="13940" xr2:uid="{3427F9C5-F25D-854A-A81C-64B95CC746FB}"/>
+    <workbookView xWindow="8360" yWindow="5180" windowWidth="25240" windowHeight="13940" xr2:uid="{3427F9C5-F25D-854A-A81C-64B95CC746FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
   <si>
     <t>Kosterhavet</t>
   </si>
@@ -123,21 +123,6 @@
     <t>Nummer</t>
   </si>
   <si>
-    <t>SLV Lyresund-Stigfjorden</t>
-  </si>
-  <si>
-    <t>SLV Tjärnöarkipelagen</t>
-  </si>
-  <si>
-    <t>SLV Saltöfjorden</t>
-  </si>
-  <si>
-    <t>SLV Fjällbacka södra</t>
-  </si>
-  <si>
-    <t>SLV Havstensfjorden-Ljungskile</t>
-  </si>
-  <si>
     <t>SLABO</t>
   </si>
   <si>
@@ -166,6 +151,48 @@
   </si>
   <si>
     <t>ZZ99</t>
+  </si>
+  <si>
+    <t>FJÄLLBACKA KALVÖSKÄR</t>
+  </si>
+  <si>
+    <t>LYRESUND</t>
+  </si>
+  <si>
+    <t>SALTÖFJ KÄRINGEHOLMEN</t>
+  </si>
+  <si>
+    <t>ÖDDÖ S</t>
+  </si>
+  <si>
+    <t>SLV Boxvikskile</t>
+  </si>
+  <si>
+    <t>SLV Fjällbacka norra</t>
+  </si>
+  <si>
+    <t>SLV Kalvöfjord</t>
+  </si>
+  <si>
+    <t>SLV Borgilefjorden</t>
+  </si>
+  <si>
+    <t>SLV Sannäsfjorden</t>
+  </si>
+  <si>
+    <t>STATION_ID</t>
+  </si>
+  <si>
+    <t>KOLJÖFJ SVINHOLMEN</t>
+  </si>
+  <si>
+    <t>Bottnefjorden</t>
+  </si>
+  <si>
+    <t>BOTTNEFJ ASPHOLMEN</t>
+  </si>
+  <si>
+    <t>HAVSTENSFJORDEN LJUNGSKILE</t>
   </si>
 </sst>
 </file>
@@ -517,19 +544,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C931128-AB23-C941-AC76-AEC3A9A41794}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -537,27 +565,36 @@
         <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -565,83 +602,140 @@
         <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>393527</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
         <v>122</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -649,204 +743,347 @@
         <v>124</v>
       </c>
       <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>344752</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>344762</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>142</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D16">
+        <v>344760</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>393523</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>152</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>344754</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>158</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>143</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>160</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>166</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>344758</v>
+      </c>
+      <c r="E28" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27">
-        <v>167</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>168</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>169</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>170</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>171</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/config/production_areas.xlsx
+++ b/config/production_areas.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30116C1-CD48-40A6-A08B-2A9965CC605E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B19670-0C8C-4353-9802-2B0CA3D0B5ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8355" yWindow="5175" windowWidth="25245" windowHeight="13935" xr2:uid="{3427F9C5-F25D-854A-A81C-64B95CC746FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -423,17 +423,17 @@
     <t>COORDINATE_UNCERTAINTY_M</t>
   </si>
   <si>
-    <t>temp</t>
-  </si>
-  <si>
     <t>PROD_AREA_MAPPING_NR</t>
+  </si>
+  <si>
+    <t>Full_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -462,13 +462,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -482,15 +495,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,7 +823,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
         <v>31</v>
@@ -840,7 +854,7 @@
         <v>35</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>126</v>
@@ -903,10 +917,10 @@
       <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1077,10 +1091,10 @@
       <c r="G9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1277,13 +1291,13 @@
       <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="6" t="s">
         <v>77</v>
       </c>
     </row>
